--- a/kontak.xlsx
+++ b/kontak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\tes\wa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D960DDE-6A9A-49ED-BEE9-6EC11F96CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A9E56-D34E-4400-9C1A-BB46941DC521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nama</t>
   </si>
   <si>
     <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Tri Wahyudi</t>
-  </si>
-  <si>
-    <t>Nazran</t>
   </si>
 </sst>
 </file>
@@ -360,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,20 +372,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6282172906330</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6283865788573</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
